--- a/Software Engineering/Algorithmic Complexity/Graphs.xlsx
+++ b/Software Engineering/Algorithmic Complexity/Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raza-\Desktop\GitHub\NTU\NTU\Software Engineering\Algorithmic Complexity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3735A82-4BF9-4454-8FF7-4D4E52FC36E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA62D621-0785-432C-A4A2-78789B385B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{66BF319C-B90A-4F53-8DB2-CA15D4539FB1}"/>
   </bookViews>
@@ -33,12 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t>Time</t>
+    <t xml:space="preserve">Time </t>
   </si>
   <si>
-    <t>n(ms)</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>DictionarySize</t>
+  </si>
+  <si>
+    <t>Time(ms)</t>
   </si>
 </sst>
 </file>
@@ -140,25 +146,25 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$6</c:f>
+              <c:f>Sheet1!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time</c:v>
+                  <c:v>N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -167,21 +173,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$7:$C$14</c:f>
               <c:numCache>
@@ -200,7 +194,7 @@
                   <c:v>900000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3000000</c:v>
@@ -213,8 +207,41 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDF2-4C01-827B-0B34EAABDED5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$7:$D$14</c:f>
               <c:numCache>
@@ -233,24 +260,24 @@
                   <c:v>5479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7274</c:v>
+                  <c:v>16409</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19953</c:v>
+                  <c:v>26241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29826</c:v>
+                  <c:v>40224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44227</c:v>
+                  <c:v>59262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BF6A-49D9-93CB-72625F5B496A}"/>
+              <c16:uniqueId val="{00000001-DDF2-4C01-827B-0B34EAABDED5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -262,30 +289,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="434689552"/>
-        <c:axId val="434687256"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="434689552"/>
+        <c:smooth val="0"/>
+        <c:axId val="463715192"/>
+        <c:axId val="463717816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="463715192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -295,8 +309,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -323,12 +337,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434687256"/>
+        <c:crossAx val="463717816"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="434687256"/>
+        <c:axId val="463717816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,14 +371,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -385,9 +396,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434689552"/>
+        <c:crossAx val="463715192"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -397,6 +408,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -475,7 +517,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -502,8 +544,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -583,6 +625,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -593,6 +640,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -604,7 +656,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -624,6 +676,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -636,10 +691,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -679,23 +734,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -800,8 +854,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -933,20 +987,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -960,17 +1013,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -995,22 +1037,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75531F60-B130-4824-9455-2D42DCF5279E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA12B31-5708-44CD-8A9B-1D554BFF83FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0B363B-BFB8-4936-A9F5-8D26AC5009B4}">
-  <dimension ref="C6:D14"/>
+  <dimension ref="C6:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1378,10 +1420,10 @@
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C11">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="D11">
-        <v>7274</v>
+        <v>16409</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.55000000000000004">
@@ -1389,7 +1431,7 @@
         <v>3000000</v>
       </c>
       <c r="D12">
-        <v>19953</v>
+        <v>26241</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.55000000000000004">
@@ -1397,7 +1439,7 @@
         <v>4300000</v>
       </c>
       <c r="D13">
-        <v>29826</v>
+        <v>40224</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.55000000000000004">
@@ -1405,7 +1447,73 @@
         <v>6000000</v>
       </c>
       <c r="D14">
-        <v>44227</v>
+        <v>59262</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23">
+        <v>100000</v>
+      </c>
+      <c r="D23">
+        <v>300000</v>
+      </c>
+      <c r="E23">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24">
+        <v>500000</v>
+      </c>
+      <c r="D24">
+        <v>600000</v>
+      </c>
+      <c r="E24">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25">
+        <v>800000</v>
+      </c>
+      <c r="D25">
+        <v>900000</v>
+      </c>
+      <c r="E25">
+        <v>6475</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26">
+        <v>1000000</v>
+      </c>
+      <c r="D26">
+        <v>1000000</v>
+      </c>
+      <c r="E26">
+        <v>8376</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27">
+        <v>1500000</v>
+      </c>
+      <c r="D27">
+        <v>1000000</v>
+      </c>
+      <c r="E27">
+        <v>13169</v>
       </c>
     </row>
   </sheetData>
